--- a/liste pour base de donnee.xlsx
+++ b/liste pour base de donnee.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f76f6f3dae5179e/Documents/FORMATION/cultureteque/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="558" documentId="8_{0F1BD7E4-8DF5-4017-A0F0-E0DD2D2A9BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D15CCA9-A5EE-4406-9255-275F3C4A9CE6}"/>
+  <xr:revisionPtr revIDLastSave="574" documentId="8_{0F1BD7E4-8DF5-4017-A0F0-E0DD2D2A9BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC616B26-19F3-49DC-ABF1-F0CFAA6CF13B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{88F5F731-6A51-4F4A-AE5B-1B420D9FE520}"/>
+    <workbookView minimized="1" xWindow="1560" yWindow="1560" windowWidth="18000" windowHeight="9270" xr2:uid="{88F5F731-6A51-4F4A-AE5B-1B420D9FE520}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="379">
   <si>
     <t>Vampyria</t>
   </si>
@@ -188,9 +188,6 @@
     <t>la maison de la nuit</t>
   </si>
   <si>
-    <t>nerves</t>
-  </si>
-  <si>
     <t>film</t>
   </si>
   <si>
@@ -542,9 +539,6 @@
     <t>tolken</t>
   </si>
   <si>
-    <t>elvis</t>
-  </si>
-  <si>
     <t>the northman</t>
   </si>
   <si>
@@ -746,9 +740,6 @@
     <t>the queen gambit</t>
   </si>
   <si>
-    <t>lie to me</t>
-  </si>
-  <si>
     <t>the simpson</t>
   </si>
   <si>
@@ -896,9 +887,6 @@
     <t>broken things</t>
   </si>
   <si>
-    <t>Selena catwoman</t>
-  </si>
-  <si>
     <t>mister</t>
   </si>
   <si>
@@ -941,9 +929,6 @@
     <t>the rolling stone</t>
   </si>
   <si>
-    <t>France galle</t>
-  </si>
-  <si>
     <t>train</t>
   </si>
   <si>
@@ -1167,6 +1152,27 @@
   </si>
   <si>
     <t>loic nottet</t>
+  </si>
+  <si>
+    <t>the hobbit</t>
+  </si>
+  <si>
+    <t>psycho</t>
+  </si>
+  <si>
+    <t>France gall</t>
+  </si>
+  <si>
+    <t>the white queen</t>
+  </si>
+  <si>
+    <t>devine rival</t>
+  </si>
+  <si>
+    <t>les oiseau</t>
+  </si>
+  <si>
+    <t>malcom</t>
   </si>
 </sst>
 </file>
@@ -1222,6 +1228,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1541,10 +1551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{045777E6-150A-4655-A346-037F24917341}">
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1560,13 +1570,13 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" t="s">
         <v>52</v>
-      </c>
-      <c r="D1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1574,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1591,10 +1601,10 @@
         <v>355</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1602,13 +1612,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1616,13 +1626,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1630,13 +1640,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1647,10 +1657,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1658,13 +1668,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1672,13 +1682,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1686,13 +1696,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1700,13 +1710,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1714,13 +1724,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1728,13 +1738,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1742,13 +1752,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1756,13 +1766,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1770,13 +1780,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1784,13 +1794,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1798,13 +1808,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>301</v>
+        <v>374</v>
       </c>
       <c r="D18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1812,13 +1822,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1826,13 +1836,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1843,10 +1853,10 @@
         <v>10</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1854,13 +1864,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1868,10 +1878,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
@@ -1885,10 +1895,10 @@
         <v>27</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1896,13 +1906,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1910,13 +1920,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1924,13 +1934,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1938,13 +1948,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1952,13 +1962,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C29" s="1">
         <v>1789</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1966,13 +1976,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1980,13 +1990,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1994,10 +2004,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D32" s="1">
         <v>90210</v>
@@ -2008,13 +2018,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2022,13 +2032,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2036,13 +2046,13 @@
         <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2053,10 +2063,10 @@
         <v>40</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2064,13 +2074,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2078,13 +2088,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2092,13 +2102,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2106,13 +2116,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>373</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2120,13 +2130,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2134,13 +2144,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2148,10 +2158,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D43" t="s">
         <v>28</v>
@@ -2162,13 +2172,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2176,13 +2186,13 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2190,13 +2200,13 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2204,13 +2214,13 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2218,13 +2228,13 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2235,360 +2245,360 @@
         <v>30</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>376</v>
       </c>
       <c r="B50" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B53" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B55" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D56" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B57" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D57" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D58" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B59" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D59" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B60" t="s">
-        <v>168</v>
+        <v>377</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D60" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B61" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B62" t="s">
+        <v>167</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D62" t="s">
         <v>169</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D62" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B63" t="s">
+        <v>168</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D63" t="s">
         <v>170</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D63" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B64" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D64" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B65" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D65" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B66" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D66" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B67" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D67" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B68" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D68" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B69" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D69" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B70" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D70" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B71" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D71" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B72" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D72" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B73" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D73" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B74" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D74" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2596,38 +2606,38 @@
         <v>34</v>
       </c>
       <c r="B75" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D75" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B76" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="D76" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B77" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D77" t="s">
         <v>47</v>
@@ -2635,324 +2645,338 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B78" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D78" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B79" t="s">
         <v>32</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D79" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B80" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D80" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B81" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D81" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B82" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D82" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B83" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D83" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B84" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D84" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B85" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D85" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B86" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D86" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B87" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D87" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B88" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D88" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B89" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D89" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B90" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D90" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B91" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D91" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B92" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D92" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B93" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D93" t="s">
-        <v>236</v>
+        <v>375</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B94" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D94" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B95" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D95" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B96" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D96" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B97" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D97" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B98" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D98" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>286</v>
+        <v>184</v>
       </c>
       <c r="B99" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D99" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B100" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D100" t="s">
-        <v>368</v>
+        <v>363</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>148</v>
+      </c>
+      <c r="B101" t="s">
+        <v>372</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D101" t="s">
+        <v>378</v>
       </c>
     </row>
   </sheetData>

--- a/liste pour base de donnee.xlsx
+++ b/liste pour base de donnee.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f76f6f3dae5179e/Documents/FORMATION/cultureteque/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="574" documentId="8_{0F1BD7E4-8DF5-4017-A0F0-E0DD2D2A9BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC616B26-19F3-49DC-ABF1-F0CFAA6CF13B}"/>
+  <xr:revisionPtr revIDLastSave="584" documentId="8_{0F1BD7E4-8DF5-4017-A0F0-E0DD2D2A9BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD027B35-BD63-40C1-B02A-295D1886D781}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1560" yWindow="1560" windowWidth="18000" windowHeight="9270" xr2:uid="{88F5F731-6A51-4F4A-AE5B-1B420D9FE520}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{88F5F731-6A51-4F4A-AE5B-1B420D9FE520}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="378">
   <si>
     <t>Vampyria</t>
   </si>
@@ -692,15 +692,9 @@
     <t>sweeny todd</t>
   </si>
   <si>
-    <t>elite</t>
-  </si>
-  <si>
     <t>arrow</t>
   </si>
   <si>
-    <t>flash</t>
-  </si>
-  <si>
     <t>tiny pretty things</t>
   </si>
   <si>
@@ -812,9 +806,6 @@
     <t>the pact</t>
   </si>
   <si>
-    <t>la nuit ou  les etoiles se sont eteint</t>
-  </si>
-  <si>
     <t>three dark crown</t>
   </si>
   <si>
@@ -1172,7 +1163,13 @@
     <t>les oiseau</t>
   </si>
   <si>
-    <t>malcom</t>
+    <t>la nuit ou les etoiles se sont eteil</t>
+  </si>
+  <si>
+    <t>les combattente</t>
+  </si>
+  <si>
+    <t>versaille</t>
   </si>
 </sst>
 </file>
@@ -1553,8 +1550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{045777E6-150A-4655-A346-037F24917341}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D118" sqref="D118"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1601,7 +1598,7 @@
         <v>355</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D3" t="s">
         <v>61</v>
@@ -1615,7 +1612,7 @@
         <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D4" t="s">
         <v>62</v>
@@ -1629,7 +1626,7 @@
         <v>56</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D5" t="s">
         <v>63</v>
@@ -1643,7 +1640,7 @@
         <v>57</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D6" t="s">
         <v>74</v>
@@ -1657,7 +1654,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D7" t="s">
         <v>75</v>
@@ -1671,7 +1668,7 @@
         <v>58</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D8" t="s">
         <v>76</v>
@@ -1685,7 +1682,7 @@
         <v>59</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D9" t="s">
         <v>77</v>
@@ -1783,7 +1780,7 @@
         <v>70</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D16" t="s">
         <v>85</v>
@@ -1797,7 +1794,7 @@
         <v>71</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D17" t="s">
         <v>86</v>
@@ -1811,7 +1808,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D18" t="s">
         <v>87</v>
@@ -1825,7 +1822,7 @@
         <v>73</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D19" t="s">
         <v>55</v>
@@ -1867,7 +1864,7 @@
         <v>96</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D22" t="s">
         <v>94</v>
@@ -1881,7 +1878,7 @@
         <v>98</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
@@ -1895,7 +1892,7 @@
         <v>27</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D24" t="s">
         <v>95</v>
@@ -1909,7 +1906,7 @@
         <v>99</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D25" t="s">
         <v>97</v>
@@ -1923,7 +1920,7 @@
         <v>102</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D26" t="s">
         <v>100</v>
@@ -1951,7 +1948,7 @@
         <v>107</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D28" t="s">
         <v>105</v>
@@ -1979,7 +1976,7 @@
         <v>109</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D30" t="s">
         <v>111</v>
@@ -1993,7 +1990,7 @@
         <v>114</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D31" t="s">
         <v>112</v>
@@ -2007,7 +2004,7 @@
         <v>115</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D32" s="1">
         <v>90210</v>
@@ -2021,7 +2018,7 @@
         <v>116</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D33" t="s">
         <v>113</v>
@@ -2035,7 +2032,7 @@
         <v>117</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D34" t="s">
         <v>119</v>
@@ -2049,7 +2046,7 @@
         <v>118</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D35" t="s">
         <v>123</v>
@@ -2063,7 +2060,7 @@
         <v>40</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D36" t="s">
         <v>124</v>
@@ -2077,7 +2074,7 @@
         <v>120</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D37" t="s">
         <v>125</v>
@@ -2091,7 +2088,7 @@
         <v>121</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D38" t="s">
         <v>126</v>
@@ -2105,7 +2102,7 @@
         <v>122</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D39" t="s">
         <v>127</v>
@@ -2116,10 +2113,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D40" t="s">
         <v>128</v>
@@ -2133,7 +2130,7 @@
         <v>133</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D41" t="s">
         <v>129</v>
@@ -2147,7 +2144,7 @@
         <v>137</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D42" t="s">
         <v>130</v>
@@ -2161,7 +2158,7 @@
         <v>139</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D43" t="s">
         <v>28</v>
@@ -2175,7 +2172,7 @@
         <v>140</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D44" t="s">
         <v>131</v>
@@ -2189,7 +2186,7 @@
         <v>147</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D45" t="s">
         <v>132</v>
@@ -2203,7 +2200,7 @@
         <v>148</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D46" t="s">
         <v>134</v>
@@ -2217,7 +2214,7 @@
         <v>149</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D47" t="s">
         <v>135</v>
@@ -2231,7 +2228,7 @@
         <v>151</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D48" t="s">
         <v>136</v>
@@ -2245,7 +2242,7 @@
         <v>30</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D49" t="s">
         <v>138</v>
@@ -2253,13 +2250,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B50" t="s">
         <v>156</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D50" t="s">
         <v>141</v>
@@ -2287,7 +2284,7 @@
         <v>157</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D52" t="s">
         <v>143</v>
@@ -2301,7 +2298,7 @@
         <v>160</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D53" t="s">
         <v>144</v>
@@ -2309,13 +2306,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B54" t="s">
         <v>161</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D54" t="s">
         <v>145</v>
@@ -2323,13 +2320,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B55" t="s">
         <v>162</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D55" t="s">
         <v>146</v>
@@ -2337,13 +2334,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B56" t="s">
         <v>163</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D56" t="s">
         <v>150</v>
@@ -2351,13 +2348,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B57" t="s">
         <v>164</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D57" t="s">
         <v>152</v>
@@ -2365,13 +2362,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B58" t="s">
         <v>165</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D58" t="s">
         <v>153</v>
@@ -2379,13 +2376,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B59" t="s">
         <v>166</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D59" t="s">
         <v>154</v>
@@ -2393,13 +2390,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B60" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D60" t="s">
         <v>155</v>
@@ -2407,13 +2404,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B61" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D61" t="s">
         <v>158</v>
@@ -2421,13 +2418,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B62" t="s">
         <v>167</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D62" t="s">
         <v>169</v>
@@ -2435,13 +2432,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B63" t="s">
         <v>168</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D63" t="s">
         <v>170</v>
@@ -2449,13 +2446,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B64" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D64" t="s">
         <v>171</v>
@@ -2463,13 +2460,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B65" t="s">
         <v>181</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D65" t="s">
         <v>172</v>
@@ -2477,13 +2474,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B66" t="s">
         <v>182</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D66" t="s">
         <v>173</v>
@@ -2491,13 +2488,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B67" t="s">
         <v>183</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D67" t="s">
         <v>174</v>
@@ -2511,7 +2508,7 @@
         <v>184</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D68" t="s">
         <v>175</v>
@@ -2519,13 +2516,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B69" t="s">
         <v>185</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D69" t="s">
         <v>176</v>
@@ -2533,13 +2530,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B70" t="s">
         <v>186</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D70" t="s">
         <v>177</v>
@@ -2553,7 +2550,7 @@
         <v>187</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D71" t="s">
         <v>178</v>
@@ -2561,13 +2558,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>258</v>
+        <v>375</v>
       </c>
       <c r="B72" t="s">
         <v>188</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D72" t="s">
         <v>179</v>
@@ -2575,13 +2572,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B73" t="s">
         <v>216</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D73" t="s">
         <v>180</v>
@@ -2589,13 +2586,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B74" t="s">
         <v>217</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D74" t="s">
         <v>194</v>
@@ -2609,7 +2606,7 @@
         <v>189</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D75" t="s">
         <v>208</v>
@@ -2617,27 +2614,27 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B76" t="s">
         <v>190</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D76" t="s">
-        <v>218</v>
+        <v>376</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B77" t="s">
         <v>191</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D77" t="s">
         <v>47</v>
@@ -2645,296 +2642,296 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B78" t="s">
         <v>192</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D78" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B79" t="s">
         <v>32</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D79" t="s">
-        <v>220</v>
+        <v>109</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B80" t="s">
         <v>193</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D80" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B81" t="s">
         <v>195</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D81" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B82" t="s">
         <v>196</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D82" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B83" t="s">
         <v>197</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D83" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B84" t="s">
         <v>198</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D84" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B85" t="s">
         <v>199</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D85" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B86" t="s">
         <v>200</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D86" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B87" t="s">
         <v>201</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D87" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B88" t="s">
         <v>215</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D88" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B89" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D89" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B90" t="s">
         <v>204</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D90" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B91" t="s">
         <v>205</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D91" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B92" t="s">
         <v>206</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D92" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B93" t="s">
         <v>207</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D93" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B94" t="s">
         <v>209</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D94" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B95" t="s">
         <v>210</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D95" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B96" t="s">
         <v>211</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D96" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B97" t="s">
         <v>164</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D97" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B98" t="s">
         <v>214</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D98" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2945,24 +2942,24 @@
         <v>212</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D99" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B100" t="s">
         <v>213</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D100" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2970,13 +2967,13 @@
         <v>148</v>
       </c>
       <c r="B101" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D101" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
